--- a/GBADoomMemory.xlsx
+++ b/GBADoomMemory.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zak\Documents\GitProjects\GBADoom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD6E91EA-B8E4-4DA4-9DB2-13BE59289742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D54EC9B-3CB2-4580-A16A-007B99C2D8D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Globals" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="309">
   <si>
     <t>Memory</t>
   </si>
@@ -932,6 +932,66 @@
   <si>
     <t>Mobj trim</t>
   </si>
+  <si>
+    <t>Map28</t>
+  </si>
+  <si>
+    <t>sector_t</t>
+  </si>
+  <si>
+    <t>side_t</t>
+  </si>
+  <si>
+    <t>linedata_t</t>
+  </si>
+  <si>
+    <r>
+      <t>_g</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>-&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>blocklinks</t>
+    </r>
+  </si>
+  <si>
+    <t>subsector_t</t>
+  </si>
+  <si>
+    <t>line_t</t>
+  </si>
+  <si>
+    <t>mobj_t</t>
+  </si>
+  <si>
+    <t>_g-&gt;blocklinks</t>
+  </si>
+  <si>
+    <t>Slim Structs</t>
+  </si>
+  <si>
+    <t>Slim globals</t>
+  </si>
+  <si>
+    <t>Ver 2.2</t>
+  </si>
+  <si>
+    <t>No translate</t>
+  </si>
+  <si>
+    <t>MaxMod</t>
+  </si>
 </sst>
 </file>
 
@@ -942,7 +1002,7 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -969,6 +1029,26 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF800080"/>
+      <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCE5C00"/>
+      <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF800000"/>
+      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="3">
@@ -997,7 +1077,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1014,6 +1094,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1098,10 +1180,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Globals!$B$2:$B$49</c:f>
+              <c:f>Globals!$B$2:$B$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>112960</c:v>
                 </c:pt>
@@ -1245,6 +1327,15 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>24128</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>23256</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>22104</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>22032</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2796,10 +2887,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>D_DoomLoop!$B$2:$B$35</c:f>
+              <c:f>D_DoomLoop!$B$2:$B$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>627068</c:v>
                 </c:pt>
@@ -2901,6 +2992,12 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>41640</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>39304</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>38152</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2929,10 +3026,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>D_DoomLoop!$F$2:$F$35</c:f>
+              <c:f>D_DoomLoop!$F$2:$F$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>262144</c:v>
                 </c:pt>
@@ -3033,6 +3130,12 @@
                   <c:v>262144</c:v>
                 </c:pt>
                 <c:pt idx="33">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="35">
                   <c:v>262144</c:v>
                 </c:pt>
               </c:numCache>
@@ -3306,10 +3409,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>E1M1!$B$2:$B$57</c:f>
+              <c:f>E1M1!$B$2:$B$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="56"/>
+                <c:ptCount val="58"/>
                 <c:pt idx="0">
                   <c:v>572432</c:v>
                 </c:pt>
@@ -3477,6 +3580,12 @@
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>88032</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>88128</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>86976</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3505,10 +3614,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>E1M1!$F$2:$F$53</c:f>
+              <c:f>E1M1!$F$2:$F$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="58"/>
                 <c:pt idx="0">
                   <c:v>262144</c:v>
                 </c:pt>
@@ -3663,6 +3772,24 @@
                   <c:v>262144</c:v>
                 </c:pt>
                 <c:pt idx="51">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="57">
                   <c:v>262144</c:v>
                 </c:pt>
               </c:numCache>
@@ -3936,10 +4063,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>E1M2!$B$2:$B$49</c:f>
+              <c:f>E1M2!$B$2:$B$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>367176</c:v>
                 </c:pt>
@@ -4083,6 +4210,12 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>135784</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>134836</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>133684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4111,10 +4244,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>E1M2!$F$2:$F$45</c:f>
+              <c:f>E1M2!$F$2:$F$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>262144</c:v>
                 </c:pt>
@@ -4245,6 +4378,24 @@
                   <c:v>262144</c:v>
                 </c:pt>
                 <c:pt idx="43">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="49">
                   <c:v>262144</c:v>
                 </c:pt>
               </c:numCache>
@@ -4649,10 +4800,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
-                  <c:v>88032</c:v>
+                  <c:v>86976</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>135784</c:v>
+                  <c:v>133684</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>138600</c:v>
@@ -5428,7 +5579,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>96804</c:v>
+                  <c:v>82132</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>113672</c:v>
@@ -6704,7 +6855,7 @@
                   <c:v>203392</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>243080</c:v>
+                  <c:v>234892</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>150508</c:v>
@@ -6719,7 +6870,7 @@
                   <c:v>180836</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>255260</c:v>
+                  <c:v>260344</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>216236</c:v>
@@ -14757,10 +14908,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50:C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14844,7 +14995,7 @@
         <v>0.19654083251953125</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F49" si="3">256*1024</f>
+        <f t="shared" ref="F4:F52" si="3">256*1024</f>
         <v>262144</v>
       </c>
     </row>
@@ -15924,6 +16075,78 @@
         <v>9.2041015625E-2</v>
       </c>
       <c r="F49">
+        <f t="shared" si="3"/>
+        <v>262144</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" t="s">
+        <v>304</v>
+      </c>
+      <c r="B50">
+        <v>23256</v>
+      </c>
+      <c r="C50">
+        <f t="shared" ref="C50" si="5">B49-B50</f>
+        <v>872</v>
+      </c>
+      <c r="D50">
+        <f t="shared" ref="D50" si="6">$F$3-B50</f>
+        <v>238888</v>
+      </c>
+      <c r="E50" s="1">
+        <f t="shared" ref="E50" si="7">1-(D50/$F$3)</f>
+        <v>8.8714599609375E-2</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="3"/>
+        <v>262144</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" t="s">
+        <v>304</v>
+      </c>
+      <c r="B51">
+        <v>22104</v>
+      </c>
+      <c r="C51">
+        <f t="shared" ref="C51" si="8">B50-B51</f>
+        <v>1152</v>
+      </c>
+      <c r="D51">
+        <f t="shared" ref="D51" si="9">$F$3-B51</f>
+        <v>240040</v>
+      </c>
+      <c r="E51" s="1">
+        <f t="shared" ref="E51" si="10">1-(D51/$F$3)</f>
+        <v>8.4320068359375E-2</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="3"/>
+        <v>262144</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" t="s">
+        <v>305</v>
+      </c>
+      <c r="B52">
+        <v>22032</v>
+      </c>
+      <c r="C52">
+        <f t="shared" ref="C52" si="11">B51-B52</f>
+        <v>72</v>
+      </c>
+      <c r="D52">
+        <f t="shared" ref="D52" si="12">$F$3-B52</f>
+        <v>240112</v>
+      </c>
+      <c r="E52" s="1">
+        <f t="shared" ref="E52" si="13">1-(D52/$F$3)</f>
+        <v>8.404541015625E-2</v>
+      </c>
+      <c r="F52">
         <f t="shared" si="3"/>
         <v>262144</v>
       </c>
@@ -15937,10 +16160,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E4DB5C2-1263-4F5F-A356-135B21345C52}">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:XFD29"/>
+      <selection activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16478,15 +16701,15 @@
         <v>143</v>
       </c>
       <c r="B24">
-        <v>243080</v>
+        <v>234892</v>
       </c>
       <c r="C24">
         <f t="shared" si="1"/>
-        <v>19064</v>
+        <v>27252</v>
       </c>
       <c r="D24" s="1">
         <f t="shared" si="2"/>
-        <v>0.927276611328125</v>
+        <v>0.8960418701171875</v>
       </c>
       <c r="E24">
         <f t="shared" si="0"/>
@@ -16583,15 +16806,15 @@
         <v>148</v>
       </c>
       <c r="B29">
-        <v>255260</v>
+        <v>260344</v>
       </c>
       <c r="C29">
         <f t="shared" si="1"/>
-        <v>6884</v>
+        <v>1800</v>
       </c>
       <c r="D29" s="1">
         <f t="shared" si="2"/>
-        <v>0.9737396240234375</v>
+        <v>0.993133544921875</v>
       </c>
       <c r="E29">
         <f t="shared" si="0"/>
@@ -16662,7 +16885,7 @@
       </c>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:8">
       <c r="A33" t="s">
         <v>152</v>
       </c>
@@ -16683,7 +16906,119 @@
       </c>
       <c r="F33" s="4"/>
     </row>
+    <row r="39" spans="1:8">
+      <c r="A39" t="s">
+        <v>295</v>
+      </c>
+      <c r="E39" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="B41">
+        <v>74172</v>
+      </c>
+      <c r="E41" t="s">
+        <v>296</v>
+      </c>
+      <c r="F41">
+        <v>17836</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="B42">
+        <v>44416</v>
+      </c>
+      <c r="E42" t="s">
+        <v>297</v>
+      </c>
+      <c r="F42">
+        <v>44416</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="B43">
+        <v>20168</v>
+      </c>
+      <c r="E43" t="s">
+        <v>298</v>
+      </c>
+      <c r="F43">
+        <v>20168</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="B44">
+        <v>17836</v>
+      </c>
+      <c r="E44" t="s">
+        <v>303</v>
+      </c>
+      <c r="F44">
+        <v>15640</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="B45">
+        <v>15640</v>
+      </c>
+      <c r="E45" t="s">
+        <v>300</v>
+      </c>
+      <c r="F45">
+        <v>13104</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="B46">
+        <v>14328</v>
+      </c>
+      <c r="E46" t="s">
+        <v>301</v>
+      </c>
+      <c r="F46">
+        <v>14328</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="14" t="s">
+        <v>300</v>
+      </c>
+      <c r="B47">
+        <v>13104</v>
+      </c>
+      <c r="E47" t="s">
+        <v>302</v>
+      </c>
+      <c r="F47">
+        <v>74172</v>
+      </c>
+      <c r="H47">
+        <v>63008</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A41:B47">
+    <sortCondition descending="1" ref="B41:B47"/>
+  </sortState>
   <conditionalFormatting sqref="C2:C33">
     <cfRule type="colorScale" priority="3">
       <colorScale>
@@ -21584,10 +21919,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Y30" sqref="Y30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -21671,7 +22006,7 @@
         <v>1.1417999267578125</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F35" si="3">256*1024</f>
+        <f t="shared" ref="F4:F37" si="3">256*1024</f>
         <v>262144</v>
       </c>
     </row>
@@ -22415,6 +22750,54 @@
         <v>0.158843994140625</v>
       </c>
       <c r="F35">
+        <f t="shared" si="3"/>
+        <v>262144</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>304</v>
+      </c>
+      <c r="B36">
+        <v>39304</v>
+      </c>
+      <c r="C36">
+        <f t="shared" ref="C36" si="4">B35-B36</f>
+        <v>2336</v>
+      </c>
+      <c r="D36">
+        <f t="shared" ref="D36" si="5">$F$3-B36</f>
+        <v>222840</v>
+      </c>
+      <c r="E36" s="1">
+        <f t="shared" ref="E36" si="6">1-(D36/$F$3)</f>
+        <v>0.149932861328125</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="3"/>
+        <v>262144</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>304</v>
+      </c>
+      <c r="B37">
+        <v>38152</v>
+      </c>
+      <c r="C37">
+        <f t="shared" ref="C37" si="7">B36-B37</f>
+        <v>1152</v>
+      </c>
+      <c r="D37">
+        <f t="shared" ref="D37" si="8">$F$3-B37</f>
+        <v>223992</v>
+      </c>
+      <c r="E37" s="1">
+        <f t="shared" ref="E37" si="9">1-(D37/$F$3)</f>
+        <v>0.145538330078125</v>
+      </c>
+      <c r="F37">
         <f t="shared" si="3"/>
         <v>262144</v>
       </c>
@@ -22427,10 +22810,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C55" sqref="C55:C57"/>
+    <sheetView topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -22465,7 +22848,7 @@
         <v>2.18365478515625</v>
       </c>
       <c r="F2">
-        <f t="shared" ref="F2:F57" si="2">256*1024</f>
+        <f t="shared" ref="F2:F59" si="2">256*1024</f>
         <v>262144</v>
       </c>
     </row>
@@ -23785,6 +24168,54 @@
         <v>0.3358154296875</v>
       </c>
       <c r="F57">
+        <f t="shared" si="2"/>
+        <v>262144</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" t="s">
+        <v>304</v>
+      </c>
+      <c r="B58">
+        <v>88128</v>
+      </c>
+      <c r="C58">
+        <f t="shared" ref="C58" si="4">B57-B58</f>
+        <v>-96</v>
+      </c>
+      <c r="D58">
+        <f t="shared" ref="D58" si="5">$F$2-B58</f>
+        <v>174016</v>
+      </c>
+      <c r="E58" s="1">
+        <f t="shared" ref="E58" si="6">1-(D58/$F$2)</f>
+        <v>0.336181640625</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="2"/>
+        <v>262144</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" t="s">
+        <v>304</v>
+      </c>
+      <c r="B59">
+        <v>86976</v>
+      </c>
+      <c r="C59">
+        <f t="shared" ref="C59" si="7">B58-B59</f>
+        <v>1152</v>
+      </c>
+      <c r="D59">
+        <f t="shared" ref="D59" si="8">$F$2-B59</f>
+        <v>175168</v>
+      </c>
+      <c r="E59" s="1">
+        <f t="shared" ref="E59" si="9">1-(D59/$F$2)</f>
+        <v>0.331787109375</v>
+      </c>
+      <c r="F59">
         <f t="shared" si="2"/>
         <v>262144</v>
       </c>
@@ -23797,10 +24228,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47:C49"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -23835,7 +24266,7 @@
         <v>1.400665283203125</v>
       </c>
       <c r="F2">
-        <f t="shared" ref="F2:F49" si="2">256*1024</f>
+        <f t="shared" ref="F2:F51" si="2">256*1024</f>
         <v>262144</v>
       </c>
     </row>
@@ -24963,6 +25394,54 @@
         <v>0.517974853515625</v>
       </c>
       <c r="F49">
+        <f t="shared" si="2"/>
+        <v>262144</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" t="s">
+        <v>304</v>
+      </c>
+      <c r="B50">
+        <v>134836</v>
+      </c>
+      <c r="C50">
+        <f t="shared" ref="C50" si="5">B49-B50</f>
+        <v>948</v>
+      </c>
+      <c r="D50">
+        <f t="shared" ref="D50" si="6">$F$2-B50</f>
+        <v>127308</v>
+      </c>
+      <c r="E50" s="1">
+        <f t="shared" ref="E50" si="7">1-(D50/$F$2)</f>
+        <v>0.5143585205078125</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="2"/>
+        <v>262144</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" t="s">
+        <v>304</v>
+      </c>
+      <c r="B51">
+        <v>133684</v>
+      </c>
+      <c r="C51">
+        <f t="shared" ref="C51" si="8">B50-B51</f>
+        <v>1152</v>
+      </c>
+      <c r="D51">
+        <f t="shared" ref="D51" si="9">$F$2-B51</f>
+        <v>128460</v>
+      </c>
+      <c r="E51" s="1">
+        <f t="shared" ref="E51" si="10">1-(D51/$F$2)</f>
+        <v>0.5099639892578125</v>
+      </c>
+      <c r="F51">
         <f t="shared" si="2"/>
         <v>262144</v>
       </c>
@@ -25669,10 +26148,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:H68"/>
+  <dimension ref="A1:H71"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="G68" sqref="G68"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -27597,7 +28077,7 @@
         <v>6892</v>
       </c>
       <c r="E68" s="2">
-        <f t="shared" ref="E68" si="152">C68+D68+B68</f>
+        <f t="shared" ref="E68:E69" si="152">C68+D68+B68</f>
         <v>31804</v>
       </c>
       <c r="F68" s="2">
@@ -27609,6 +28089,93 @@
         <v>0.9705810546875</v>
       </c>
       <c r="H68">
+        <v>32768</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" t="s">
+        <v>306</v>
+      </c>
+      <c r="B69" s="2">
+        <v>21692</v>
+      </c>
+      <c r="C69" s="2">
+        <v>3060</v>
+      </c>
+      <c r="D69" s="2">
+        <v>6892</v>
+      </c>
+      <c r="E69" s="2">
+        <f t="shared" si="152"/>
+        <v>31644</v>
+      </c>
+      <c r="F69" s="2">
+        <f t="shared" ref="F69" si="155">H69-E69</f>
+        <v>1124</v>
+      </c>
+      <c r="G69" s="1">
+        <f t="shared" ref="G69" si="156">1-(F69/H69)</f>
+        <v>0.9656982421875</v>
+      </c>
+      <c r="H69">
+        <v>32768</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" t="s">
+        <v>307</v>
+      </c>
+      <c r="B70" s="2">
+        <v>21644</v>
+      </c>
+      <c r="C70" s="2">
+        <v>3060</v>
+      </c>
+      <c r="D70" s="2">
+        <v>6892</v>
+      </c>
+      <c r="E70" s="2">
+        <f t="shared" ref="E70:E71" si="157">C70+D70+B70</f>
+        <v>31596</v>
+      </c>
+      <c r="F70" s="2">
+        <f t="shared" ref="F70" si="158">H70-E70</f>
+        <v>1172</v>
+      </c>
+      <c r="G70" s="1">
+        <f t="shared" ref="G70" si="159">1-(F70/H70)</f>
+        <v>0.9642333984375</v>
+      </c>
+      <c r="H70">
+        <v>32768</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" t="s">
+        <v>308</v>
+      </c>
+      <c r="B71" s="2">
+        <v>21644</v>
+      </c>
+      <c r="C71" s="2">
+        <v>3060</v>
+      </c>
+      <c r="D71" s="2">
+        <v>6896</v>
+      </c>
+      <c r="E71" s="2">
+        <f t="shared" si="157"/>
+        <v>31600</v>
+      </c>
+      <c r="F71" s="2">
+        <f t="shared" ref="F71" si="160">H71-E71</f>
+        <v>1168</v>
+      </c>
+      <c r="G71" s="1">
+        <f t="shared" ref="G71" si="161">1-(F71/H71)</f>
+        <v>0.96435546875</v>
+      </c>
+      <c r="H71">
         <v>32768</v>
       </c>
     </row>
@@ -27622,8 +28189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -27701,15 +28268,15 @@
         <v>85</v>
       </c>
       <c r="B2">
-        <v>88032</v>
+        <v>86976</v>
       </c>
       <c r="C2">
         <f>$E$2-B2</f>
-        <v>174112</v>
+        <v>175168</v>
       </c>
       <c r="D2" s="1">
         <f>1-(C2/$E$2)</f>
-        <v>0.3358154296875</v>
+        <v>0.331787109375</v>
       </c>
       <c r="E2">
         <f t="shared" ref="E2:E37" si="0">256*1024</f>
@@ -27744,8 +28311,7 @@
         <v>623</v>
       </c>
       <c r="N2" s="4">
-        <f t="shared" si="4"/>
-        <v>20.766666666666666</v>
+        <v>24.3</v>
       </c>
       <c r="O2" s="4">
         <v>22</v>
@@ -27760,15 +28326,15 @@
         <v>86</v>
       </c>
       <c r="B3">
-        <v>135784</v>
+        <v>133684</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C37" si="5">$E$2-B3</f>
-        <v>126360</v>
+        <v>128460</v>
       </c>
       <c r="D3" s="1">
         <f t="shared" ref="D3:D37" si="6">1-(C3/$E$2)</f>
-        <v>0.517974853515625</v>
+        <v>0.5099639892578125</v>
       </c>
       <c r="E3">
         <f t="shared" si="0"/>
@@ -27803,8 +28369,7 @@
         <v>448</v>
       </c>
       <c r="N3" s="4">
-        <f t="shared" si="4"/>
-        <v>14.933333333333334</v>
+        <v>17.5</v>
       </c>
       <c r="O3" s="4">
         <v>16</v>
@@ -30318,7 +30883,7 @@
   <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -30396,15 +30961,15 @@
         <v>121</v>
       </c>
       <c r="B2">
-        <v>96804</v>
+        <v>82132</v>
       </c>
       <c r="C2">
         <f>$E$2-B2</f>
-        <v>165340</v>
+        <v>180012</v>
       </c>
       <c r="D2" s="1">
         <f>1-(C2/$E$2)</f>
-        <v>0.3692779541015625</v>
+        <v>0.3133087158203125</v>
       </c>
       <c r="E2">
         <f t="shared" ref="E2:E33" si="0">256*1024</f>
